--- a/data/Healing Given - Wildemount.xlsx
+++ b/data/Healing Given - Wildemount.xlsx
@@ -108,6 +108,8 @@
     <sheet state="visible" name="2-101" sheetId="103" r:id="rId105"/>
     <sheet state="visible" name="2-102" sheetId="104" r:id="rId106"/>
     <sheet state="visible" name="2-103" sheetId="105" r:id="rId107"/>
+    <sheet state="visible" name="2-104" sheetId="106" r:id="rId108"/>
+    <sheet state="visible" name="2-105" sheetId="107" r:id="rId109"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="102">
   <si>
     <t>Player</t>
   </si>
@@ -375,6 +377,12 @@
     <t>02-103</t>
   </si>
   <si>
+    <t>02-104</t>
+  </si>
+  <si>
+    <t>02-105</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -605,6 +613,14 @@
 </file>
 
 <file path=xl/drawings/drawing105.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing106.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing107.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1049,23 +1065,23 @@
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B1000), "-")</f>
-        <v>1.878787879</v>
+        <v>1.841584158</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" si="1"/>
-        <v>0.213592233</v>
+        <v>0.2095238095</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="1"/>
-        <v>1.019417476</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" si="1"/>
-        <v>0.6699029126</v>
+        <v>0.6571428571</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="1"/>
-        <v>10.84848485</v>
+        <v>10.79207921</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1073,11 +1089,11 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" si="1"/>
-        <v>1.281690141</v>
+        <v>1.246575342</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="1"/>
-        <v>42.72368421</v>
+        <v>45.24358974</v>
       </c>
     </row>
     <row r="3">
@@ -1102,7 +1118,7 @@
       </c>
       <c r="F3" s="6">
         <f t="shared" si="2"/>
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="2"/>
@@ -1114,7 +1130,7 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" si="2"/>
-        <v>3247</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="4">
@@ -4929,16 +4945,78 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="A107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="12">
+        <f>IF(Attendance!B105="Y", '2-104'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="12">
+        <f>IF(Attendance!C105="Y", '2-104'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="12">
+        <f>IF(Attendance!D105="Y", '2-104'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="12">
+        <f>IF(Attendance!E105="Y", '2-104'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
+        <f>IF(Attendance!F105="Y", '2-104'!F$3, "N/A")</f>
+        <v>16</v>
+      </c>
+      <c r="G107" s="11" t="str">
+        <f>IF(Attendance!G105="Y", '2-104'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H107" s="12">
+        <f>IF(Attendance!H105="Y", '2-104'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="12">
+        <f>IF(Attendance!I105="Y", '2-104'!I$3, "N/A")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="21"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="A108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="12">
+        <f>IF(Attendance!B106="Y", '2-105'!B$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="C108" s="12">
+        <f>IF(Attendance!C106="Y", '2-105'!C$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="12">
+        <f>IF(Attendance!D106="Y", '2-105'!D$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="12">
+        <f>IF(Attendance!E106="Y", '2-105'!E$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
+        <f>IF(Attendance!F106="Y", '2-105'!F$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="11" t="str">
+        <f>IF(Attendance!G106="Y", '2-105'!G$3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H108" s="12">
+        <f>IF(Attendance!H106="Y", '2-105'!H$3, "N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="12">
+        <f>IF(Attendance!I106="Y", '2-105'!I$3, "N/A")</f>
+        <v>282</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="21"/>
@@ -8756,7 +8834,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8770,7 +8848,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -8884,13 +8962,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8901,7 +8979,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9033,13 +9111,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9050,7 +9128,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9198,13 +9276,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9215,7 +9293,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9332,13 +9410,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9349,7 +9427,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9464,13 +9542,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9481,7 +9559,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9607,13 +9685,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -9624,7 +9702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -9694,6 +9772,384 @@
       <c r="I3" s="6">
         <f>SUM(I4:I29)</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="23">
+        <v>7.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3.0" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col hidden="1" min="7" max="7" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="1"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:H3" si="2">SUM(B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(I4:I29)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="I5" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="I8" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="I10" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="I11" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="I12" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="I13" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="I14" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="I15" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="I18" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="I19" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="I20" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="I21" s="23">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="I22" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="I23" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="I24" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" s="23">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="23">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -9730,7 +10186,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9744,7 +10200,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -9851,7 +10307,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -9865,7 +10321,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -9990,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10004,7 +10460,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10111,7 +10567,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10125,7 +10581,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -10244,7 +10700,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10258,7 +10714,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10368,7 +10824,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10382,7 +10838,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -10510,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10524,7 +10980,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -10670,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10684,7 +11140,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -10797,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -10811,7 +11267,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -10972,28 +11428,28 @@
         <v>43132.0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -11001,31 +11457,31 @@
         <v>43133.0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -11033,28 +11489,28 @@
         <v>43134.0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -11062,28 +11518,28 @@
         <v>43135.0</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -11091,28 +11547,28 @@
         <v>43136.0</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -11120,28 +11576,28 @@
         <v>43137.0</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -11149,28 +11605,28 @@
         <v>43138.0</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -11178,28 +11634,28 @@
         <v>43139.0</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -11207,28 +11663,28 @@
         <v>43140.0</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -11236,28 +11692,28 @@
         <v>43141.0</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -11265,28 +11721,28 @@
         <v>43142.0</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -11294,28 +11750,28 @@
         <v>43143.0</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -11323,28 +11779,28 @@
         <v>43144.0</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -11352,28 +11808,28 @@
         <v>43145.0</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -11381,28 +11837,28 @@
         <v>43146.0</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -11410,28 +11866,28 @@
         <v>43147.0</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -11439,28 +11895,28 @@
         <v>43148.0</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -11468,28 +11924,28 @@
         <v>43149.0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -11497,28 +11953,28 @@
         <v>43150.0</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -11526,28 +11982,28 @@
         <v>43151.0</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -11555,28 +12011,28 @@
         <v>43152.0</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -11584,28 +12040,28 @@
         <v>43153.0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -11613,28 +12069,28 @@
         <v>43154.0</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -11642,28 +12098,28 @@
         <v>43155.0</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -11671,28 +12127,28 @@
         <v>43156.0</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -11700,28 +12156,28 @@
         <v>43157.0</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -11729,28 +12185,28 @@
         <v>43158.0</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -11758,28 +12214,28 @@
         <v>43159.0</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -11787,28 +12243,28 @@
         <v>11</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -11816,28 +12272,28 @@
         <v>12</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -11845,28 +12301,28 @@
         <v>13</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -11874,28 +12330,28 @@
         <v>14</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -11903,28 +12359,28 @@
         <v>15</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -11932,28 +12388,28 @@
         <v>16</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -11961,28 +12417,28 @@
         <v>17</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -11990,28 +12446,28 @@
         <v>18</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -12019,28 +12475,28 @@
         <v>19</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -12048,28 +12504,28 @@
         <v>20</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -12077,28 +12533,28 @@
         <v>21</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -12106,28 +12562,28 @@
         <v>22</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
@@ -12135,28 +12591,28 @@
         <v>23</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -12164,28 +12620,28 @@
         <v>24</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -12193,28 +12649,28 @@
         <v>25</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -12222,28 +12678,28 @@
         <v>26</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -12251,28 +12707,28 @@
         <v>27</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -12280,28 +12736,28 @@
         <v>28</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
@@ -12309,28 +12765,28 @@
         <v>29</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
@@ -12338,28 +12794,28 @@
         <v>30</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
@@ -12367,28 +12823,28 @@
         <v>31</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
@@ -12396,28 +12852,28 @@
         <v>32</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -12425,28 +12881,28 @@
         <v>33</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -12454,28 +12910,28 @@
         <v>34</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
@@ -12483,28 +12939,28 @@
         <v>35</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -12512,28 +12968,28 @@
         <v>36</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
@@ -12541,28 +12997,28 @@
         <v>37</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
@@ -12570,28 +13026,28 @@
         <v>38</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
@@ -12599,28 +13055,28 @@
         <v>39</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -12628,28 +13084,28 @@
         <v>40</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
@@ -12657,28 +13113,28 @@
         <v>41</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61">
@@ -12686,28 +13142,28 @@
         <v>42</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
@@ -12715,28 +13171,28 @@
         <v>43</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63">
@@ -12744,28 +13200,28 @@
         <v>44</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
@@ -12773,28 +13229,28 @@
         <v>45</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -12802,28 +13258,28 @@
         <v>46</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -12831,28 +13287,28 @@
         <v>47</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -12860,28 +13316,28 @@
         <v>48</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -12889,28 +13345,28 @@
         <v>49</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -12918,28 +13374,28 @@
         <v>50</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -12947,28 +13403,28 @@
         <v>51</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -12976,28 +13432,28 @@
         <v>52</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
@@ -13005,28 +13461,28 @@
         <v>53</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -13034,28 +13490,28 @@
         <v>54</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H73" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -13063,28 +13519,28 @@
         <v>55</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
@@ -13092,28 +13548,28 @@
         <v>56</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
@@ -13121,28 +13577,28 @@
         <v>57</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -13150,28 +13606,28 @@
         <v>58</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -13179,28 +13635,28 @@
         <v>59</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
@@ -13208,28 +13664,28 @@
         <v>60</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H79" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
@@ -13237,28 +13693,28 @@
         <v>61</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
@@ -13266,28 +13722,28 @@
         <v>62</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -13295,28 +13751,28 @@
         <v>63</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
@@ -13324,28 +13780,28 @@
         <v>64</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -13353,28 +13809,28 @@
         <v>65</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
@@ -13382,28 +13838,28 @@
         <v>66</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
@@ -13411,28 +13867,28 @@
         <v>67</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -13440,28 +13896,28 @@
         <v>68</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -13469,28 +13925,28 @@
         <v>69</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
@@ -13498,28 +13954,28 @@
         <v>70</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -13527,28 +13983,28 @@
         <v>71</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
@@ -13556,28 +14012,28 @@
         <v>72</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
@@ -13585,28 +14041,28 @@
         <v>73</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
@@ -13614,28 +14070,28 @@
         <v>74</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
@@ -13643,28 +14099,28 @@
         <v>75</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95">
@@ -13672,28 +14128,28 @@
         <v>76</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -13701,28 +14157,28 @@
         <v>77</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97">
@@ -13730,28 +14186,28 @@
         <v>78</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98">
@@ -13759,28 +14215,28 @@
         <v>79</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I98" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99">
@@ -13788,28 +14244,28 @@
         <v>80</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
@@ -13817,28 +14273,28 @@
         <v>81</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101">
@@ -13846,28 +14302,28 @@
         <v>82</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
@@ -13875,28 +14331,28 @@
         <v>83</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103">
@@ -13904,28 +14360,28 @@
         <v>84</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104">
@@ -13933,35 +14389,87 @@
         <v>85</v>
       </c>
       <c r="B104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="23" t="s">
+      <c r="B105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H104" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I104" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="21"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="21"/>
+      <c r="B106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="21"/>
@@ -14069,7 +14577,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14083,7 +14591,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -14199,7 +14707,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14213,7 +14721,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B16), "-")</f>
@@ -14356,7 +14864,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14370,7 +14878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -14495,7 +15003,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14507,12 +15015,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -14660,7 +15168,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14674,7 +15182,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B13), "-")</f>
@@ -14835,7 +15343,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14849,7 +15357,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -14971,7 +15479,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -14985,7 +15493,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -15092,7 +15600,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15106,7 +15614,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -15240,7 +15748,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15252,12 +15760,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B18), "-")</f>
@@ -15408,7 +15916,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15420,15 +15928,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -15551,7 +16059,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -15565,7 +16073,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -15687,13 +16195,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -15702,15 +16210,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -15874,13 +16382,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -15889,15 +16397,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B20), "-")</f>
@@ -16106,13 +16614,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16121,15 +16629,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16266,13 +16774,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16283,7 +16791,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -16401,13 +16909,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16418,7 +16926,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -16542,13 +17050,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16559,7 +17067,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -16674,13 +17182,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16691,7 +17199,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -16851,13 +17359,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -16868,7 +17376,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -17049,13 +17557,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17066,7 +17574,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -17190,13 +17698,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17207,7 +17715,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B5), "-")</f>
@@ -17319,7 +17827,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -17333,7 +17841,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B6), "-")</f>
@@ -17443,13 +17951,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17460,7 +17968,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B8), "-")</f>
@@ -17585,13 +18093,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17602,7 +18110,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -17729,13 +18237,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17746,7 +18254,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -17855,13 +18363,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -17872,7 +18380,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -17991,13 +18499,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18008,7 +18516,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18122,13 +18630,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18137,12 +18645,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18262,13 +18770,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18279,7 +18787,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B19), "-")</f>
@@ -18420,13 +18928,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18435,15 +18943,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:K2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -18601,13 +19109,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18618,7 +19126,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -18735,13 +19243,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -18752,7 +19260,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -18863,7 +19371,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -18877,7 +19385,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -19003,13 +19511,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19020,7 +19528,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19124,13 +19632,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19141,7 +19649,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19245,13 +19753,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19262,7 +19770,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19387,13 +19895,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19404,7 +19912,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19571,13 +20079,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19588,7 +20096,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19712,13 +20220,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19729,7 +20237,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19849,13 +20357,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19866,7 +20374,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -19980,13 +20488,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -19997,7 +20505,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20197,13 +20705,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20214,7 +20722,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20341,13 +20849,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20358,7 +20866,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20487,7 +20995,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -20501,7 +21009,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B7), "-")</f>
@@ -20609,13 +21117,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20626,7 +21134,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20753,13 +21261,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20770,7 +21278,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -20932,13 +21440,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -20949,7 +21457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21089,13 +21597,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21106,7 +21614,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21233,13 +21741,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21250,7 +21758,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21377,13 +21885,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21394,7 +21902,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21531,13 +22039,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21548,7 +22056,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21695,13 +22203,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21712,7 +22220,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21854,13 +22362,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -21871,7 +22379,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -21998,13 +22506,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22015,7 +22523,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22166,7 +22674,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -22180,7 +22688,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:H2" si="1">IF(B3&gt;0, AVERAGE(B4:B9), "-")</f>
@@ -22303,13 +22811,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22320,7 +22828,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B11), "-")</f>
@@ -22457,13 +22965,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22474,7 +22982,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22617,13 +23125,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22634,7 +23142,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22741,13 +23249,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22758,7 +23266,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22870,13 +23378,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -22887,7 +23395,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -22999,13 +23507,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23016,7 +23524,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23166,13 +23674,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23183,7 +23691,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23295,13 +23803,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23312,7 +23820,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23419,13 +23927,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23434,12 +23942,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:J2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23575,13 +24083,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23592,7 +24100,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23706,7 +24214,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -23720,7 +24228,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:F2" si="1">IF(B3&gt;0, AVERAGE(B4:B10), "-")</f>
@@ -23843,13 +24351,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23860,7 +24368,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -23967,13 +24475,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -23984,7 +24492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24091,13 +24599,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24108,7 +24616,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24215,13 +24723,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24232,7 +24740,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24373,13 +24881,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24390,7 +24898,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24602,13 +25110,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24619,7 +25127,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24726,13 +25234,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24743,7 +25251,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24850,13 +25358,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -24867,7 +25375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -24987,13 +25495,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25004,7 +25512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25168,13 +25676,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25185,7 +25693,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25335,7 +25843,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -25347,12 +25855,12 @@
         <v>7</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B15), "-")</f>
@@ -25504,13 +26012,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25521,7 +26029,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25651,13 +26159,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25668,7 +26176,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25798,13 +26306,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25815,7 +26323,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -25945,13 +26453,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -25962,7 +26470,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26092,13 +26600,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26109,7 +26617,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26239,13 +26747,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26256,7 +26764,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26411,13 +26919,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26428,7 +26936,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26588,13 +27096,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26605,7 +27113,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26742,13 +27250,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26759,7 +27267,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
@@ -26882,13 +27390,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -26899,7 +27407,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:I2" si="1">IF(B3&gt;0, AVERAGE(B4:B29), "-")</f>
